--- a/Recycling/Met_rec_tech/metrec_tech_Max_full_Min.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Max_full_Min.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.633006595860869E-12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.111746737784971E-13</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7.891194564995453E-08</v>
+      </c>
+      <c r="E7">
         <v>4.13182707537187</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.870423270768016E-10</v>
-      </c>
-      <c r="F7">
-        <v>7.891194564995453E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>11.01087492618957</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>941.7939184042584</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>63.25534170139964</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>679211.4725012436</v>
+      </c>
+      <c r="E7">
         <v>1949533.836152341</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>119333.5001898664</v>
-      </c>
-      <c r="F7">
-        <v>679211.4725012436</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5195298.070966827</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1153.152577524225</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>77.45119064767023</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>833907.6815626425</v>
+      </c>
+      <c r="E7">
         <v>2009639.498370545</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>146114.4849630087</v>
-      </c>
-      <c r="F7">
-        <v>833907.6815626425</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5355473.198572058</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.46347332655973E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.356117057624337E-12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.369388681133765E-06</v>
+      </c>
+      <c r="E7">
         <v>8.881875857238542</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.199104574730396E-08</v>
-      </c>
-      <c r="F7">
-        <v>1.369388681133765E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>23.66924423263636</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.557906964774812E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.046364129880917E-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.933130495598234E-05</v>
+      </c>
+      <c r="E7">
         <v>19.68997143220163</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.974003945488937E-07</v>
-      </c>
-      <c r="F7">
-        <v>1.933130495598234E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>52.47165691722597</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.736693791088162E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.166445833204311E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0001872334902320085</v>
+      </c>
+      <c r="E7">
         <v>36.40152507058148</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.200542441383659E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0001872334902320085</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>97.00615063583049</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.741613219805223E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.169749954609137E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.001654957145982597</v>
+      </c>
+      <c r="E7">
         <v>72.43175401958635</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.206775786452782E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.001654957145982597</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>193.0228370272283</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.403311218082562E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.425303017843145E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.01191833730521859</v>
+      </c>
+      <c r="E7">
         <v>135.2418903152737</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0001778117656495793</v>
-      </c>
-      <c r="F7">
-        <v>0.01191833730521859</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>360.4050972798526</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.049534474198622E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.406448733130064E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.06189051163314045</v>
+      </c>
+      <c r="E7">
         <v>205.218654008346</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.001019946195164106</v>
-      </c>
-      <c r="F7">
-        <v>0.06189051163314045</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>546.885649033001</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.805501184472813E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.227602276147106E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.3383482083244339</v>
+      </c>
+      <c r="E7">
         <v>361.9504649638154</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.006088988952926507</v>
-      </c>
-      <c r="F7">
-        <v>0.3383482083244339</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>964.5590743494607</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0002602425535779343</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.747912290589984E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.695000563011027</v>
+      </c>
+      <c r="E7">
         <v>634.1640156740024</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0329750003795133</v>
-      </c>
-      <c r="F7">
-        <v>1.695000563011027</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1689.978920196729</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.001298918036442716</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.724148949327462E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7.895621148314166</v>
+      </c>
+      <c r="E7">
         <v>1103.491054563759</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1645842394173575</v>
-      </c>
-      <c r="F7">
-        <v>7.895621148314166</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2940.685019562933</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.005354012166489388</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0003596008239664229</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30.60821258934253</v>
+      </c>
+      <c r="E7">
         <v>1687.547837992392</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.678400018731125</v>
-      </c>
-      <c r="F7">
-        <v>30.60821258934253</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4497.133553059817</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.02185383618552169</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.001467807179880528</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>118.2728984743836</v>
+      </c>
+      <c r="E7">
         <v>2694.196998590871</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.769071570363275</v>
-      </c>
-      <c r="F7">
-        <v>118.2728984743836</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7179.745337074518</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.08398409113256795</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.005640769470112192</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>432.5176661356027</v>
+      </c>
+      <c r="E7">
         <v>4239.964904920897</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>10.6415165348436</v>
-      </c>
-      <c r="F7">
-        <v>432.5176661356027</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>11299.05061559612</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2590331506541447</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.01739789367548752</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1273.121824163721</v>
+      </c>
+      <c r="E7">
         <v>5582.184303223969</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32.82175848527788</v>
-      </c>
-      <c r="F7">
-        <v>1273.121824163721</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>14875.92100456089</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.8622240267371015</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.05791105078149492</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4035.854578647631</v>
+      </c>
+      <c r="E7">
         <v>8261.631582582997</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>109.2513012110718</v>
-      </c>
-      <c r="F7">
-        <v>4035.854578647631</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>22016.35992568537</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.60085799005186</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.1746859452610392</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>11432.26099745593</v>
+      </c>
+      <c r="E7">
         <v>11624.8061817301</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>329.5513820853166</v>
-      </c>
-      <c r="F7">
-        <v>11432.26099745593</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>30978.85864371644</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.127455703239114</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4787136943227275</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>28228.37055014586</v>
+      </c>
+      <c r="E7">
         <v>15992.54918205339</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>903.110776035675</v>
-      </c>
-      <c r="F7">
-        <v>28228.37055014586</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42618.42414561279</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>16.65792436713346</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.118825124358898</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>54355.33037983721</v>
+      </c>
+      <c r="E7">
         <v>21538.23911882044</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2110.704244083716</v>
-      </c>
-      <c r="F7">
-        <v>54355.33037983721</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>57397.09158722503</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>29.16311552272428</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.95873301092552</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>71396.96512851416</v>
+      </c>
+      <c r="E7">
         <v>28426.9829805595</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3695.220985993127</v>
-      </c>
-      <c r="F7">
-        <v>71396.96512851416</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>75754.85334165135</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>31.53034616086467</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.117727436325194</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>69588.06651081712</v>
+      </c>
+      <c r="E7">
         <v>36802.00923276091</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3995.169745786166</v>
-      </c>
-      <c r="F7">
-        <v>69588.06651081712</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>98073.39787034375</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>9.065875760932161E-06</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.415958419339549E-05</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>19.47524527000107</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.308049744427948</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>67602.93150657402</v>
+      </c>
+      <c r="E7">
         <v>46770.31087500965</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2467.683364385229</v>
-      </c>
-      <c r="F7">
-        <v>67602.93150657402</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>124637.8500139399</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.51564699333755</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8406101501685829</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>71309.72371900584</v>
+      </c>
+      <c r="E7">
         <v>58390.26303813496</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1585.841587707787</v>
-      </c>
-      <c r="F7">
-        <v>71309.72371900584</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>155603.77321995</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>19.38648135887406</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.302087939600617</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>75749.39529561164</v>
+      </c>
+      <c r="E7">
         <v>71663.54606092388</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2456.436202985762</v>
-      </c>
-      <c r="F7">
-        <v>75749.39529561164</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>190975.6454105814</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>29.50931166101957</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.981985183821983</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>79698.94897635547</v>
+      </c>
+      <c r="E7">
         <v>86535.20527769555</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3739.087054915072</v>
-      </c>
-      <c r="F7">
-        <v>79698.94897635547</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>230607.0183101962</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>41.14351841060306</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.763393631029373</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82655.85236393446</v>
+      </c>
+      <c r="E7">
         <v>102907.7349332713</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5213.242479185319</v>
-      </c>
-      <c r="F7">
-        <v>82655.85236393446</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>274238.0495644871</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>57.73643492774495</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.877852520181042</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>88909.5333474095</v>
+      </c>
+      <c r="E7">
         <v>120676.8282835491</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7315.709661925021</v>
-      </c>
-      <c r="F7">
-        <v>88909.5333474095</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>321590.7729148671</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>70.82249939176958</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.756774610271573</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91661.79351599436</v>
+      </c>
+      <c r="E7">
         <v>139797.2682019955</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8973.828116170531</v>
-      </c>
-      <c r="F7">
-        <v>91661.79351599436</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>372544.6895806047</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>81.53832287688785</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.47650008621384</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>89509.79915234633</v>
+      </c>
+      <c r="E7">
         <v>160386.0570149649</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>10331.61637420326</v>
-      </c>
-      <c r="F7">
-        <v>89509.79915234633</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>427411.5981820335</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>120.6786063086984</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.10534696490655</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91195.12804278551</v>
+      </c>
+      <c r="E7">
         <v>182864.6085006332</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15291.03151701427</v>
-      </c>
-      <c r="F7">
-        <v>91195.12804278551</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>487314.5211300683</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>199.3579580684472</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.38982500532561</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>91802.3210566551</v>
+      </c>
+      <c r="E7">
         <v>208131.1334513168</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25260.39132565379</v>
-      </c>
-      <c r="F7">
-        <v>91802.3210566551</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>554647.0936159065</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0006636502064246982</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.001768556448366022</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>292.2278765301749</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.62740873917609</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>94281.07813671647</v>
+      </c>
+      <c r="E7">
         <v>237737.5010551123</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37027.81965133594</v>
-      </c>
-      <c r="F7">
-        <v>94281.07813671647</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>633544.8801780036</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>392.2088068996806</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.3426017241368</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>98847.76684110551</v>
+      </c>
+      <c r="E7">
         <v>274028.4745374263</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>49696.2751808089</v>
-      </c>
-      <c r="F7">
-        <v>98847.76684110551</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>730256.4227169561</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>409.8413604212331</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>27.52688756021847</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>98284.29447543401</v>
+      </c>
+      <c r="E7">
         <v>320190.7974625006</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>51930.47343574902</v>
-      </c>
-      <c r="F7">
-        <v>98284.29447543401</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>853274.0502115965</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>355.4043037201669</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.87063691392119</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>92075.75926927173</v>
+      </c>
+      <c r="E7">
         <v>380159.5391872829</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45032.82375971445</v>
-      </c>
-      <c r="F7">
-        <v>92075.75926927173</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1013084.299422744</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>344.3540202513245</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.12844752082838</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82929.07186401371</v>
+      </c>
+      <c r="E7">
         <v>458346.8910437908</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43632.65650586184</v>
-      </c>
-      <c r="F7">
-        <v>82929.07186401371</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1221445.185877437</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>317.854993073164</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.34864730535309</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82088.33798145955</v>
+      </c>
+      <c r="E7">
         <v>559194.0526097156</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40274.99873912425</v>
-      </c>
-      <c r="F7">
-        <v>82088.33798145955</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1490192.02895864</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>279.0677882440607</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.74351485847531</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>95723.54934383607</v>
+      </c>
+      <c r="E7">
         <v>686590.3592216254</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35360.32173347876</v>
-      </c>
-      <c r="F7">
-        <v>95723.54934383607</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1829689.489179912</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>241.0291334023359</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.18865857531753</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>131058.3940160181</v>
+      </c>
+      <c r="E7">
         <v>843237.6422781711</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30540.49253722696</v>
-      </c>
-      <c r="F7">
-        <v>131058.3940160181</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2247137.656733682</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>274.9748942483552</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.46861670593188</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>204119.4763504923</v>
+      </c>
+      <c r="E7">
         <v>1030046.02596647</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34841.71638164001</v>
-      </c>
-      <c r="F7">
-        <v>204119.4763504923</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2744961.914727432</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>428.766087327672</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>28.7979618830393</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>313350.4298105682</v>
+      </c>
+      <c r="E7">
         <v>1245629.121411218</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54328.40132395326</v>
-      </c>
-      <c r="F7">
-        <v>313350.4298105682</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3319467.685864834</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.008005471221025358</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.02133372010298543</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>610.9305244556034</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.03298856052556</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>441339.6592894371</v>
+      </c>
+      <c r="E7">
         <v>1485939.27397423</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77410.22365024892</v>
-      </c>
-      <c r="F7">
-        <v>441339.6592894371</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3959868.405715074</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>854.1597794695566</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>57.3694177272728</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>620780.2490183874</v>
+      </c>
+      <c r="E7">
         <v>1744072.296341136</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>108229.490776722</v>
-      </c>
-      <c r="F7">
-        <v>620780.2490183874</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4647765.157382852</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1216.01131495305</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.67308127286769</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>884154.9111282151</v>
+      </c>
+      <c r="E7">
         <v>2010288.316722295</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>154079.2350089711</v>
-      </c>
-      <c r="F7">
-        <v>884154.9111282151</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5357202.229722351</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1468.472411629381</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>98.62956466535921</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1067685.169457098</v>
+      </c>
+      <c r="E7">
         <v>2272326.099518938</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>186068.2569589163</v>
-      </c>
-      <c r="F7">
-        <v>1067685.169457098</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6055504.748118568</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1499.074377741999</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>100.6849376990567</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1092613.726744457</v>
+      </c>
+      <c r="E7">
         <v>2516096.818245986</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>189945.7928588062</v>
-      </c>
-      <c r="F7">
-        <v>1092613.726744457</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6705127.504736302</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1480.325702907645</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>99.42568786751715</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1082934.815626414</v>
+      </c>
+      <c r="E7">
         <v>2726798.318973789</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>187570.1723029886</v>
-      </c>
-      <c r="F7">
-        <v>1082934.815626414</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7266624.350793319</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1442.624980635889</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>96.89352873685488</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1060500.940750464</v>
+      </c>
+      <c r="E7">
         <v>2890389.298550378</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>182793.1621095085</v>
-      </c>
-      <c r="F7">
-        <v>1060500.940750464</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7702576.723027706</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1389.051865851715</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>93.29530452298118</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1023951.193749887</v>
+      </c>
+      <c r="E7">
         <v>2995235.496308483</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>176004.9814063446</v>
-      </c>
-      <c r="F7">
-        <v>1023951.193749887</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7981980.567608287</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1347.498893356454</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>90.50441001566671</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>992068.703169253</v>
+      </c>
+      <c r="E7">
         <v>3033638.321293407</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>170739.857524939</v>
-      </c>
-      <c r="F7">
-        <v>992068.703169253</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8084319.967347876</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1313.218195820036</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>88.20195595002295</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>962993.1497658646</v>
+      </c>
+      <c r="E7">
         <v>3002929.951449715</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>166396.1942818144</v>
-      </c>
-      <c r="F7">
-        <v>962993.1497658646</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8002485.463297239</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.04415804509042522</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1176764425534316</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1215.021372047416</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.60659201705795</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>887412.6244324844</v>
+      </c>
+      <c r="E7">
         <v>2905893.899715265</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>153953.8006123276</v>
-      </c>
-      <c r="F7">
-        <v>887412.6244324844</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7743894.818168866</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>975.6356366683998</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>65.52831183926996</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>709986.7805562703</v>
+      </c>
+      <c r="E7">
         <v>2750434.141686186</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>123621.5409320936</v>
-      </c>
-      <c r="F7">
-        <v>709986.7805562703</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7329611.277137607</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>598.8794441279634</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.22358090870351</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>429375.7720394088</v>
+      </c>
+      <c r="E7">
         <v>2548614.572488634</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75883.24670926039</v>
-      </c>
-      <c r="F7">
-        <v>429375.7720394088</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6791783.823675822</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>361.1648130955463</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.2575400163867</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>232454.8802035851</v>
+      </c>
+      <c r="E7">
         <v>2315340.875837131</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45762.73051872743</v>
-      </c>
-      <c r="F7">
-        <v>232454.8802035851</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6170134.502311518</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>383.2749605437054</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25.74256227504743</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>202260.9244378773</v>
+      </c>
+      <c r="E7">
         <v>2066985.498960145</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48564.27896063435</v>
-      </c>
-      <c r="F7">
-        <v>202260.9244378773</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5508294.124639601</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>442.1720412018042</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.69836926152211</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>193110.7079281774</v>
+      </c>
+      <c r="E7">
         <v>1820148.335578452</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>56027.05255531253</v>
-      </c>
-      <c r="F7">
-        <v>193110.7079281774</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4850499.622703282</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>464.9109926256971</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>31.22562497441413</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>170017.7754400447</v>
+      </c>
+      <c r="E7">
         <v>1590572.42577787</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>58908.27594297061</v>
-      </c>
-      <c r="F7">
-        <v>170017.7754400447</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4238704.505732449</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>429.0430675492902</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>28.81656518703246</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>131047.0266939693</v>
+      </c>
+      <c r="E7">
         <v>1392122.708558983</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54363.49713279545</v>
-      </c>
-      <c r="F7">
-        <v>131047.0266939693</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3709857.345487197</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>372.9528339721235</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25.04927934912154</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>101545.6365478423</v>
+      </c>
+      <c r="E7">
         <v>1235778.414234038</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>47256.37553386689</v>
-      </c>
-      <c r="F7">
-        <v>101545.6365478423</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3293216.610327583</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>341.2967280689625</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.9231052926645</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>97012.73531324785</v>
+      </c>
+      <c r="E7">
         <v>1128756.528643287</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43245.2709323358</v>
-      </c>
-      <c r="F7">
-        <v>97012.73531324785</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3008014.791590125</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8395,10 +8395,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.1730084582981706</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.4610489405156412</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>319.2808218479174</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.44441272132386</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>105483.1100114932</v>
+      </c>
+      <c r="E7">
         <v>1074030.5277649</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40455.66367551613</v>
-      </c>
-      <c r="F7">
-        <v>105483.1100114932</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2862175.883066049</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>302.9327268690424</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.3463972066263</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>131243.2997583691</v>
+      </c>
+      <c r="E7">
         <v>1070487.274284711</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38384.21751607285</v>
-      </c>
-      <c r="F7">
-        <v>131243.2997583691</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2852733.493491059</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>313.1227931143206</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.03081033534678</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>181785.3077616298</v>
+      </c>
+      <c r="E7">
         <v>1113748.173450226</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39675.38774817206</v>
-      </c>
-      <c r="F7">
-        <v>181785.3077616298</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2968019.138610444</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>380.5688749395548</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25.56080874466382</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>263519.6102517328</v>
+      </c>
+      <c r="E7">
         <v>1197393.089223082</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48221.39432244953</v>
-      </c>
-      <c r="F7">
-        <v>263519.6102517328</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3190923.846137124</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>521.653417279458</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.03671505505628</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>378423.0670083469</v>
+      </c>
+      <c r="E7">
         <v>1314157.394916943</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>66098.03583722227</v>
-      </c>
-      <c r="F7">
-        <v>378423.0670083469</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3502088.167001822</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>722.6316324450012</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.53536420366643</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>524696.2896056692</v>
+      </c>
+      <c r="E7">
         <v>1456739.211329408</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91563.72786276967</v>
-      </c>
-      <c r="F7">
-        <v>524696.2896056692</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3882053.378185128</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>962.9407380927018</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>64.67566230355095</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>699381.6436534482</v>
+      </c>
+      <c r="E7">
         <v>1618105.584826098</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>122012.9866061534</v>
-      </c>
-      <c r="F7">
-        <v>699381.6436534482</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4312077.414393113</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1212.403659058895</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.4307740102422</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>881793.2521494498</v>
+      </c>
+      <c r="E7">
         <v>1791445.091590486</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>153622.1135549915</v>
-      </c>
-      <c r="F7">
-        <v>881793.2521494498</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4774008.563478847</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1400.173262891563</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>94.04227024043288</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1019618.298104855</v>
+      </c>
+      <c r="E7">
         <v>1970018.222284597</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>177414.1593696244</v>
-      </c>
-      <c r="F7">
-        <v>1019618.298104855</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5249886.757648915</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1476.446201785139</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>99.16512219137549</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1077344.161821623</v>
+      </c>
+      <c r="E7">
         <v>2147085.856362301</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>187078.6056885815</v>
-      </c>
-      <c r="F7">
-        <v>1077344.161821623</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5721752.965198374</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.300082881234633E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.544844639053879E-16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6.252433650945992E-11</v>
+      </c>
+      <c r="E7">
         <v>0.5974028122126972</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.914405535869093E-13</v>
-      </c>
-      <c r="F7">
-        <v>6.252433650945992E-11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.592014265320119</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1476.923518709535</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>99.19718105750584</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1080692.380991974</v>
+      </c>
+      <c r="E7">
         <v>2315961.302187335</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>187139.0859042369</v>
-      </c>
-      <c r="F7">
-        <v>1080692.380991974</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6171787.871830231</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1459.912775908853</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>98.05465897552546</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1070613.205881315</v>
+      </c>
+      <c r="E7">
         <v>2470151.441012955</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>184983.6764886884</v>
-      </c>
-      <c r="F7">
-        <v>1070613.205881315</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6582688.01418624</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1454.750669480747</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>97.7079474501823</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1066557.009770256</v>
+      </c>
+      <c r="E7">
         <v>2603554.536508693</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>184329.592600079</v>
-      </c>
-      <c r="F7">
-        <v>1066557.009770256</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6938192.920968401</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1463.326142273436</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>98.28391683281721</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1069013.681934089</v>
+      </c>
+      <c r="E7">
         <v>2710714.820664341</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>185416.1797654203</v>
-      </c>
-      <c r="F7">
-        <v>1069013.681934089</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7223763.557001509</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1425.12435555971</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>95.71810384023051</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1035877.571969965</v>
+      </c>
+      <c r="E7">
         <v>2787143.98355026</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>180575.680338773</v>
-      </c>
-      <c r="F7">
-        <v>1035877.571969965</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7427439.05887969</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1287.364867535724</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>86.46552393152631</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>929969.4715184995</v>
+      </c>
+      <c r="E7">
         <v>2829697.289917336</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>163120.3521942461</v>
-      </c>
-      <c r="F7">
-        <v>929969.4715184995</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7540839.045267442</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1068.147019435643</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>71.7418146171665</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>762112.2183176224</v>
+      </c>
+      <c r="E7">
         <v>2836957.100634318</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>135343.5396595062</v>
-      </c>
-      <c r="F7">
-        <v>762112.2183176224</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7560185.66029617</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>818.6239845075052</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>54.98266537197613</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>565387.5598573323</v>
+      </c>
+      <c r="E7">
         <v>2809548.843705239</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>103726.7957476055</v>
-      </c>
-      <c r="F7">
-        <v>565387.5598573323</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7487145.602354298</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>640.8827625958664</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.04472278524242</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>409315.1164063046</v>
+      </c>
+      <c r="E7">
         <v>2750303.575230218</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81205.43335159653</v>
-      </c>
-      <c r="F7">
-        <v>409315.1164063046</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7329263.331570188</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>589.3851604052211</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.58589983075635</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>334053.4964620474</v>
+      </c>
+      <c r="E7">
         <v>2664192.707211069</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74680.2381887231</v>
-      </c>
-      <c r="F7">
-        <v>334053.4964620474</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7099787.126431781</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.532688559473317E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.029426254053333E-14</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.086655288027049E-09</v>
+      </c>
+      <c r="E7">
         <v>1.764529343597126</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.942050027386204E-11</v>
-      </c>
-      <c r="F7">
-        <v>3.086655288027049E-09</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4.702280988899011</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>603.8432934173827</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.55697654528661</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>305153.0222601059</v>
+      </c>
+      <c r="E7">
         <v>2557998.24059836</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76512.20968995692</v>
-      </c>
-      <c r="F7">
-        <v>305153.0222601059</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6816790.290311594</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>606.7771644636668</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.75402922519241</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>278818.9802300796</v>
+      </c>
+      <c r="E7">
         <v>2439741.975804507</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76883.95672953434</v>
-      </c>
-      <c r="F7">
-        <v>278818.9802300796</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6501650.058852059</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>577.3992305535494</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>38.78086799357787</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>247665.3628666926</v>
+      </c>
+      <c r="E7">
         <v>2317961.556793782</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73161.51638103332</v>
-      </c>
-      <c r="F7">
-        <v>247665.3628666926</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6177118.335300834</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>534.9741475142058</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.93139841013551</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>224961.567965322</v>
+      </c>
+      <c r="E7">
         <v>2200962.270302844</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67785.88849047662</v>
-      </c>
-      <c r="F7">
-        <v>224961.567965322</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5865327.81587567</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>503.1929069885184</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.79681971955217</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>221768.1772429344</v>
+      </c>
+      <c r="E7">
         <v>2096170.388596331</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>63758.92824132541</v>
-      </c>
-      <c r="F7">
-        <v>221768.1772429344</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5586068.717732843</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>486.8028693540721</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.69598713738562</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>237249.6908201758</v>
+      </c>
+      <c r="E7">
         <v>2009668.260549854</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61682.16758175767</v>
-      </c>
-      <c r="F7">
-        <v>237249.6908201758</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5355549.846687578</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>488.4450487555779</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.80628368650038</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>271524.6237556515</v>
+      </c>
+      <c r="E7">
         <v>1945928.867159839</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61890.24602874257</v>
-      </c>
-      <c r="F7">
-        <v>271524.6237556515</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5185691.216186812</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>521.3787483079617</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.01826698557182</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>329186.4102287828</v>
+      </c>
+      <c r="E7">
         <v>1907719.998052149</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>66063.2328839204</v>
-      </c>
-      <c r="F7">
-        <v>329186.4102287828</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5083868.688007055</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>606.0256450406671</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.70355362010713</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>416824.3930607894</v>
+      </c>
+      <c r="E7">
         <v>1896131.859522705</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76788.73266675933</v>
-      </c>
-      <c r="F7">
-        <v>416824.3930607894</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5052987.544714392</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>750.730565180033</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>50.42262165656086</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>535895.4923389857</v>
+      </c>
+      <c r="E7">
         <v>1910690.376613375</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>95124.10761182604</v>
-      </c>
-      <c r="F7">
-        <v>535895.4923389857</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5091784.427515143</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
